--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.850408822650599</v>
+        <v>0.8715449999999999</v>
       </c>
       <c r="H2">
-        <v>0.850408822650599</v>
+        <v>2.614635</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.7645901286754</v>
+        <v>24.577204</v>
       </c>
       <c r="N2">
-        <v>21.7645901286754</v>
+        <v>73.731612</v>
       </c>
       <c r="O2">
-        <v>0.5035204554864074</v>
+        <v>0.5324151489760768</v>
       </c>
       <c r="P2">
-        <v>0.5035204554864074</v>
+        <v>0.5324151489760768</v>
       </c>
       <c r="Q2">
-        <v>18.5087994667997</v>
+        <v>21.42013926018</v>
       </c>
       <c r="R2">
-        <v>18.5087994667997</v>
+        <v>192.78125334162</v>
       </c>
       <c r="S2">
-        <v>0.5035204554864074</v>
+        <v>0.5324151489760768</v>
       </c>
       <c r="T2">
-        <v>0.5035204554864074</v>
+        <v>0.5324151489760768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.850408822650599</v>
+        <v>0.8715449999999999</v>
       </c>
       <c r="H3">
-        <v>0.850408822650599</v>
+        <v>2.614635</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.9857075249588</v>
+        <v>15.033452</v>
       </c>
       <c r="N3">
-        <v>14.9857075249588</v>
+        <v>45.100356</v>
       </c>
       <c r="O3">
-        <v>0.3466920458479852</v>
+        <v>0.3256691683156758</v>
       </c>
       <c r="P3">
-        <v>0.3466920458479852</v>
+        <v>0.3256691683156758</v>
       </c>
       <c r="Q3">
-        <v>12.74397789288644</v>
+        <v>13.10232992334</v>
       </c>
       <c r="R3">
-        <v>12.74397789288644</v>
+        <v>117.92096931006</v>
       </c>
       <c r="S3">
-        <v>0.3466920458479852</v>
+        <v>0.3256691683156758</v>
       </c>
       <c r="T3">
-        <v>0.3466920458479852</v>
+        <v>0.3256691683156758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.850408822650599</v>
+        <v>0.8715449999999999</v>
       </c>
       <c r="H4">
-        <v>0.850408822650599</v>
+        <v>2.614635</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.47454036739618</v>
+        <v>6.551073333333334</v>
       </c>
       <c r="N4">
-        <v>6.47454036739618</v>
+        <v>19.65322</v>
       </c>
       <c r="O4">
-        <v>0.1497874986656073</v>
+        <v>0.1419156827082475</v>
       </c>
       <c r="P4">
-        <v>0.1497874986656073</v>
+        <v>0.1419156827082475</v>
       </c>
       <c r="Q4">
-        <v>5.506006251041162</v>
+        <v>5.7095552083</v>
       </c>
       <c r="R4">
-        <v>5.506006251041162</v>
+        <v>51.3859968747</v>
       </c>
       <c r="S4">
-        <v>0.1497874986656073</v>
+        <v>0.1419156827082475</v>
       </c>
       <c r="T4">
-        <v>0.1497874986656073</v>
+        <v>0.1419156827082475</v>
       </c>
     </row>
   </sheetData>
